--- a/team_JDA_tournament_phase_r2.xlsx
+++ b/team_JDA_tournament_phase_r2.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joanm\Documents\Dofus\excel utiles\code\JDA-Stats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FB6EA0-FEE9-4655-8D41-0B87B11468F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -2347,8 +2353,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2411,13 +2417,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2455,7 +2469,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2489,6 +2503,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2523,9 +2538,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2698,14 +2714,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2764,7 +2795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2823,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -2882,7 +2913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2941,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3000,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3059,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -3118,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -3177,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -3236,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -3295,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -3354,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -3413,7 +3444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -3472,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -3531,7 +3562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -3590,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -3649,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -3708,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -3767,7 +3798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -3826,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -3885,7 +3916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -3944,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -4003,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -4062,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -4121,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -4180,7 +4211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -4239,7 +4270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -4298,7 +4329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -4357,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -4416,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -4475,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -4534,7 +4565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -4593,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
@@ -4652,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
@@ -4711,7 +4742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -4770,7 +4801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
@@ -4829,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
@@ -4888,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>55</v>
       </c>
@@ -4947,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -5006,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,7 +5096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>58</v>
       </c>
@@ -5124,7 +5155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>59</v>
       </c>
@@ -5183,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -5242,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -5301,7 +5332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>62</v>
       </c>
@@ -5360,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
@@ -5419,7 +5450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
@@ -5478,7 +5509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
@@ -5537,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>66</v>
       </c>
@@ -5596,7 +5627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
@@ -5655,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>68</v>
       </c>
@@ -5714,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>69</v>
       </c>
@@ -5773,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>70</v>
       </c>
@@ -5832,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>71</v>
       </c>
@@ -5891,7 +5922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>72</v>
       </c>
@@ -5950,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>73</v>
       </c>
@@ -6009,7 +6040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>74</v>
       </c>
@@ -6068,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>75</v>
       </c>
@@ -6127,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>76</v>
       </c>
@@ -6186,7 +6217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>77</v>
       </c>
@@ -6245,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>78</v>
       </c>
@@ -6304,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
@@ -6363,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>80</v>
       </c>
@@ -6422,7 +6453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>81</v>
       </c>
@@ -6481,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
@@ -6540,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>83</v>
       </c>
@@ -6599,7 +6630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>84</v>
       </c>
@@ -6658,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>85</v>
       </c>
@@ -6717,7 +6748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>86</v>
       </c>
@@ -6776,7 +6807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>87</v>
       </c>
@@ -6835,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>88</v>
       </c>
@@ -6894,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>89</v>
       </c>
@@ -6953,7 +6984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>90</v>
       </c>
@@ -7012,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>91</v>
       </c>
@@ -7071,7 +7102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>92</v>
       </c>
@@ -7130,7 +7161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>93</v>
       </c>
@@ -7189,7 +7220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>94</v>
       </c>
@@ -7248,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>95</v>
       </c>
@@ -7307,7 +7338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>96</v>
       </c>
@@ -7366,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>97</v>
       </c>
@@ -7425,7 +7456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>98</v>
       </c>
@@ -7484,7 +7515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>99</v>
       </c>
@@ -7543,7 +7574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>100</v>
       </c>
@@ -7602,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>101</v>
       </c>
@@ -7661,7 +7692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>102</v>
       </c>
@@ -7720,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>103</v>
       </c>
@@ -7779,7 +7810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>104</v>
       </c>
@@ -7838,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>105</v>
       </c>
@@ -7897,7 +7928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>106</v>
       </c>
@@ -7956,7 +7987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>107</v>
       </c>
@@ -8015,7 +8046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>108</v>
       </c>
@@ -8074,7 +8105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>109</v>
       </c>
@@ -8133,7 +8164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>110</v>
       </c>
@@ -8192,7 +8223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>111</v>
       </c>
@@ -8251,7 +8282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>112</v>
       </c>
@@ -8310,7 +8341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>113</v>
       </c>
@@ -8369,7 +8400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>114</v>
       </c>
@@ -8428,7 +8459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>115</v>
       </c>
@@ -8487,7 +8518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>116</v>
       </c>
@@ -8546,7 +8577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>117</v>
       </c>
@@ -8605,7 +8636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>118</v>
       </c>
@@ -8664,7 +8695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>119</v>
       </c>
@@ -8723,7 +8754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>120</v>
       </c>
@@ -8782,7 +8813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>121</v>
       </c>
@@ -8841,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>122</v>
       </c>
@@ -8900,7 +8931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>123</v>
       </c>
@@ -8959,7 +8990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>124</v>
       </c>
@@ -9018,7 +9049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>125</v>
       </c>
@@ -9077,7 +9108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>126</v>
       </c>
@@ -9136,7 +9167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>127</v>
       </c>
@@ -9195,7 +9226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>128</v>
       </c>
@@ -9254,7 +9285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>129</v>
       </c>
@@ -9313,7 +9344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -9372,7 +9403,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>131</v>
       </c>
@@ -9431,7 +9462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>132</v>
       </c>
@@ -9490,7 +9521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>133</v>
       </c>
@@ -9549,7 +9580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>134</v>
       </c>
@@ -9608,7 +9639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>135</v>
       </c>
@@ -9667,7 +9698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>136</v>
       </c>
@@ -9726,7 +9757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>137</v>
       </c>
@@ -9785,7 +9816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>138</v>
       </c>
@@ -9844,7 +9875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>139</v>
       </c>
@@ -9903,7 +9934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>140</v>
       </c>
@@ -9962,7 +9993,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>141</v>
       </c>
@@ -10021,7 +10052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>142</v>
       </c>
@@ -10080,7 +10111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>143</v>
       </c>
@@ -10139,7 +10170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>144</v>
       </c>
@@ -10198,7 +10229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>145</v>
       </c>
@@ -10257,7 +10288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>146</v>
       </c>
@@ -10316,7 +10347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>147</v>
       </c>
@@ -10375,7 +10406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>148</v>
       </c>
@@ -10434,7 +10465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>149</v>
       </c>
@@ -10493,7 +10524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>150</v>
       </c>
@@ -10552,7 +10583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>151</v>
       </c>
@@ -10611,7 +10642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>152</v>
       </c>
@@ -10670,7 +10701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>153</v>
       </c>
@@ -10729,7 +10760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>154</v>
       </c>
@@ -10788,7 +10819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>155</v>
       </c>
@@ -10847,7 +10878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>156</v>
       </c>
@@ -10906,7 +10937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>157</v>
       </c>
@@ -10965,7 +10996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>158</v>
       </c>
@@ -11024,7 +11055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>159</v>
       </c>
@@ -11083,7 +11114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>160</v>
       </c>
@@ -11142,7 +11173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>161</v>
       </c>
@@ -11201,7 +11232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>162</v>
       </c>
@@ -11260,7 +11291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>163</v>
       </c>
@@ -11319,7 +11350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>164</v>
       </c>
@@ -11378,7 +11409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>165</v>
       </c>
@@ -11437,7 +11468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>166</v>
       </c>
@@ -11496,7 +11527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>167</v>
       </c>
@@ -11555,7 +11586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>168</v>
       </c>
@@ -11614,7 +11645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>169</v>
       </c>
@@ -11673,7 +11704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>170</v>
       </c>
@@ -11732,7 +11763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>171</v>
       </c>
@@ -11791,7 +11822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>172</v>
       </c>
@@ -11850,7 +11881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>173</v>
       </c>
@@ -11909,7 +11940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>174</v>
       </c>
@@ -11968,7 +11999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>175</v>
       </c>
@@ -12027,7 +12058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>176</v>
       </c>
@@ -12086,7 +12117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>177</v>
       </c>
@@ -12145,7 +12176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>178</v>
       </c>
@@ -12204,7 +12235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>179</v>
       </c>
@@ -12263,7 +12294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>180</v>
       </c>
@@ -12322,7 +12353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>181</v>
       </c>
@@ -12381,7 +12412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>182</v>
       </c>
@@ -12440,7 +12471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>183</v>
       </c>
@@ -12499,7 +12530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>184</v>
       </c>
@@ -12558,7 +12589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>185</v>
       </c>
@@ -12617,7 +12648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>186</v>
       </c>
@@ -12676,7 +12707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>187</v>
       </c>
@@ -12735,7 +12766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>188</v>
       </c>
@@ -12794,7 +12825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>189</v>
       </c>
@@ -12853,7 +12884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>190</v>
       </c>
@@ -12912,7 +12943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>191</v>
       </c>
@@ -12971,7 +13002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>192</v>
       </c>
@@ -13030,7 +13061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>193</v>
       </c>
@@ -13089,7 +13120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>194</v>
       </c>
@@ -13148,7 +13179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>195</v>
       </c>
@@ -13207,7 +13238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>196</v>
       </c>
@@ -13266,7 +13297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>197</v>
       </c>
@@ -13325,7 +13356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>198</v>
       </c>
@@ -13384,7 +13415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>199</v>
       </c>
@@ -13443,7 +13474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>200</v>
       </c>

--- a/team_JDA_tournament_phase_r2.xlsx
+++ b/team_JDA_tournament_phase_r2.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joanm\Documents\Dofus\excel utiles\code\JDA-Stats\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FB6EA0-FEE9-4655-8D41-0B87B11468F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -2353,8 +2347,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2417,21 +2411,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2469,7 +2455,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2503,7 +2489,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2538,10 +2523,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2714,29 +2698,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2795,7 +2764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2854,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -2913,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2972,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -3031,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -3090,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -3149,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -3208,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -3267,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -3326,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -3385,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -3444,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -3503,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -3562,7 +3531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -3621,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -3680,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -3739,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -3798,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -3857,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -3916,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -3975,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -4034,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -4093,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
@@ -4152,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -4211,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -4270,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
@@ -4329,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
@@ -4388,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
@@ -4447,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
@@ -4506,7 +4475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
@@ -4565,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -4624,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
@@ -4683,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19">
       <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
@@ -4742,7 +4711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -4801,7 +4770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
@@ -4860,7 +4829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
@@ -4919,7 +4888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19">
       <c r="A38" s="1" t="s">
         <v>55</v>
       </c>
@@ -4978,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -5037,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19">
       <c r="A40" s="1" t="s">
         <v>57</v>
       </c>
@@ -5096,7 +5065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19">
       <c r="A41" s="1" t="s">
         <v>58</v>
       </c>
@@ -5155,7 +5124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19">
       <c r="A42" s="1" t="s">
         <v>59</v>
       </c>
@@ -5214,7 +5183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -5273,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -5332,7 +5301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19">
       <c r="A45" s="1" t="s">
         <v>62</v>
       </c>
@@ -5391,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19">
       <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
@@ -5450,7 +5419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19">
       <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
@@ -5509,7 +5478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19">
       <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
@@ -5568,7 +5537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19">
       <c r="A49" s="1" t="s">
         <v>66</v>
       </c>
@@ -5627,7 +5596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19">
       <c r="A50" s="1" t="s">
         <v>67</v>
       </c>
@@ -5686,7 +5655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19">
       <c r="A51" s="1" t="s">
         <v>68</v>
       </c>
@@ -5745,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19">
       <c r="A52" s="1" t="s">
         <v>69</v>
       </c>
@@ -5804,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19">
       <c r="A53" s="1" t="s">
         <v>70</v>
       </c>
@@ -5863,7 +5832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19">
       <c r="A54" s="1" t="s">
         <v>71</v>
       </c>
@@ -5922,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19">
       <c r="A55" s="1" t="s">
         <v>72</v>
       </c>
@@ -5981,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19">
       <c r="A56" s="1" t="s">
         <v>73</v>
       </c>
@@ -6040,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19">
       <c r="A57" s="1" t="s">
         <v>74</v>
       </c>
@@ -6099,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19">
       <c r="A58" s="1" t="s">
         <v>75</v>
       </c>
@@ -6158,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19">
       <c r="A59" s="1" t="s">
         <v>76</v>
       </c>
@@ -6217,7 +6186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19">
       <c r="A60" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19">
       <c r="A61" s="1" t="s">
         <v>78</v>
       </c>
@@ -6335,7 +6304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19">
       <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
@@ -6394,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19">
       <c r="A63" s="1" t="s">
         <v>80</v>
       </c>
@@ -6453,7 +6422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19">
       <c r="A64" s="1" t="s">
         <v>81</v>
       </c>
@@ -6512,7 +6481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19">
       <c r="A65" s="1" t="s">
         <v>82</v>
       </c>
@@ -6571,7 +6540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19">
       <c r="A66" s="1" t="s">
         <v>83</v>
       </c>
@@ -6630,7 +6599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19">
       <c r="A67" s="1" t="s">
         <v>84</v>
       </c>
@@ -6689,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19">
       <c r="A68" s="1" t="s">
         <v>85</v>
       </c>
@@ -6748,7 +6717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19">
       <c r="A69" s="1" t="s">
         <v>86</v>
       </c>
@@ -6807,7 +6776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19">
       <c r="A70" s="1" t="s">
         <v>87</v>
       </c>
@@ -6866,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19">
       <c r="A71" s="1" t="s">
         <v>88</v>
       </c>
@@ -6925,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19">
       <c r="A72" s="1" t="s">
         <v>89</v>
       </c>
@@ -6984,7 +6953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19">
       <c r="A73" s="1" t="s">
         <v>90</v>
       </c>
@@ -7043,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19">
       <c r="A74" s="1" t="s">
         <v>91</v>
       </c>
@@ -7102,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19">
       <c r="A75" s="1" t="s">
         <v>92</v>
       </c>
@@ -7161,7 +7130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19">
       <c r="A76" s="1" t="s">
         <v>93</v>
       </c>
@@ -7220,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19">
       <c r="A77" s="1" t="s">
         <v>94</v>
       </c>
@@ -7279,7 +7248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19">
       <c r="A78" s="1" t="s">
         <v>95</v>
       </c>
@@ -7338,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19">
       <c r="A79" s="1" t="s">
         <v>96</v>
       </c>
@@ -7397,7 +7366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19">
       <c r="A80" s="1" t="s">
         <v>97</v>
       </c>
@@ -7456,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19">
       <c r="A81" s="1" t="s">
         <v>98</v>
       </c>
@@ -7515,7 +7484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19">
       <c r="A82" s="1" t="s">
         <v>99</v>
       </c>
@@ -7574,7 +7543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19">
       <c r="A83" s="1" t="s">
         <v>100</v>
       </c>
@@ -7633,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19">
       <c r="A84" s="1" t="s">
         <v>101</v>
       </c>
@@ -7692,7 +7661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19">
       <c r="A85" s="1" t="s">
         <v>102</v>
       </c>
@@ -7751,7 +7720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19">
       <c r="A86" s="1" t="s">
         <v>103</v>
       </c>
@@ -7810,7 +7779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19">
       <c r="A87" s="1" t="s">
         <v>104</v>
       </c>
@@ -7869,7 +7838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19">
       <c r="A88" s="1" t="s">
         <v>105</v>
       </c>
@@ -7928,7 +7897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19">
       <c r="A89" s="1" t="s">
         <v>106</v>
       </c>
@@ -7987,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19">
       <c r="A90" s="1" t="s">
         <v>107</v>
       </c>
@@ -8046,7 +8015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19">
       <c r="A91" s="1" t="s">
         <v>108</v>
       </c>
@@ -8105,7 +8074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19">
       <c r="A92" s="1" t="s">
         <v>109</v>
       </c>
@@ -8158,13 +8127,13 @@
         <v>766</v>
       </c>
       <c r="R92">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="S92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
       <c r="A93" s="1" t="s">
         <v>110</v>
       </c>
@@ -8217,13 +8186,13 @@
         <v>768</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="S93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
       <c r="A94" s="1" t="s">
         <v>111</v>
       </c>
@@ -8282,7 +8251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19">
       <c r="A95" s="1" t="s">
         <v>112</v>
       </c>
@@ -8341,7 +8310,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19">
       <c r="A96" s="1" t="s">
         <v>113</v>
       </c>
@@ -8400,7 +8369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19">
       <c r="A97" s="1" t="s">
         <v>114</v>
       </c>
@@ -8459,7 +8428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19">
       <c r="A98" s="1" t="s">
         <v>115</v>
       </c>
@@ -8518,7 +8487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19">
       <c r="A99" s="1" t="s">
         <v>116</v>
       </c>
@@ -8577,7 +8546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19">
       <c r="A100" s="1" t="s">
         <v>117</v>
       </c>
@@ -8636,7 +8605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19">
       <c r="A101" s="1" t="s">
         <v>118</v>
       </c>
@@ -8695,7 +8664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19">
       <c r="A102" s="1" t="s">
         <v>119</v>
       </c>
@@ -8754,7 +8723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19">
       <c r="A103" s="1" t="s">
         <v>120</v>
       </c>
@@ -8813,7 +8782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19">
       <c r="A104" s="1" t="s">
         <v>121</v>
       </c>
@@ -8872,7 +8841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19">
       <c r="A105" s="1" t="s">
         <v>122</v>
       </c>
@@ -8931,7 +8900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19">
       <c r="A106" s="1" t="s">
         <v>123</v>
       </c>
@@ -8990,7 +8959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19">
       <c r="A107" s="1" t="s">
         <v>124</v>
       </c>
@@ -9049,7 +9018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19">
       <c r="A108" s="1" t="s">
         <v>125</v>
       </c>
@@ -9108,7 +9077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19">
       <c r="A109" s="1" t="s">
         <v>126</v>
       </c>
@@ -9167,7 +9136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19">
       <c r="A110" s="1" t="s">
         <v>127</v>
       </c>
@@ -9226,7 +9195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19">
       <c r="A111" s="1" t="s">
         <v>128</v>
       </c>
@@ -9285,7 +9254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19">
       <c r="A112" s="1" t="s">
         <v>129</v>
       </c>
@@ -9344,7 +9313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19">
       <c r="A113" s="1" t="s">
         <v>130</v>
       </c>
@@ -9403,7 +9372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19">
       <c r="A114" s="1" t="s">
         <v>131</v>
       </c>
@@ -9462,7 +9431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19">
       <c r="A115" s="1" t="s">
         <v>132</v>
       </c>
@@ -9521,7 +9490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19">
       <c r="A116" s="1" t="s">
         <v>133</v>
       </c>
@@ -9580,7 +9549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19">
       <c r="A117" s="1" t="s">
         <v>134</v>
       </c>
@@ -9639,7 +9608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19">
       <c r="A118" s="1" t="s">
         <v>135</v>
       </c>
@@ -9698,7 +9667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19">
       <c r="A119" s="1" t="s">
         <v>136</v>
       </c>
@@ -9757,7 +9726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19">
       <c r="A120" s="1" t="s">
         <v>137</v>
       </c>
@@ -9816,7 +9785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19">
       <c r="A121" s="1" t="s">
         <v>138</v>
       </c>
@@ -9875,7 +9844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19">
       <c r="A122" s="1" t="s">
         <v>139</v>
       </c>
@@ -9934,7 +9903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19">
       <c r="A123" s="1" t="s">
         <v>140</v>
       </c>
@@ -9993,7 +9962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19">
       <c r="A124" s="1" t="s">
         <v>141</v>
       </c>
@@ -10052,7 +10021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19">
       <c r="A125" s="1" t="s">
         <v>142</v>
       </c>
@@ -10111,7 +10080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19">
       <c r="A126" s="1" t="s">
         <v>143</v>
       </c>
@@ -10170,7 +10139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19">
       <c r="A127" s="1" t="s">
         <v>144</v>
       </c>
@@ -10229,7 +10198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19">
       <c r="A128" s="1" t="s">
         <v>145</v>
       </c>
@@ -10288,7 +10257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19">
       <c r="A129" s="1" t="s">
         <v>146</v>
       </c>
@@ -10347,7 +10316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19">
       <c r="A130" s="1" t="s">
         <v>147</v>
       </c>
@@ -10406,7 +10375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19">
       <c r="A131" s="1" t="s">
         <v>148</v>
       </c>
@@ -10465,7 +10434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19">
       <c r="A132" s="1" t="s">
         <v>149</v>
       </c>
@@ -10524,7 +10493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19">
       <c r="A133" s="1" t="s">
         <v>150</v>
       </c>
@@ -10583,7 +10552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19">
       <c r="A134" s="1" t="s">
         <v>151</v>
       </c>
@@ -10642,7 +10611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19">
       <c r="A135" s="1" t="s">
         <v>152</v>
       </c>
@@ -10701,7 +10670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19">
       <c r="A136" s="1" t="s">
         <v>153</v>
       </c>
@@ -10760,7 +10729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19">
       <c r="A137" s="1" t="s">
         <v>154</v>
       </c>
@@ -10819,7 +10788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19">
       <c r="A138" s="1" t="s">
         <v>155</v>
       </c>
@@ -10878,7 +10847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19">
       <c r="A139" s="1" t="s">
         <v>156</v>
       </c>
@@ -10937,7 +10906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19">
       <c r="A140" s="1" t="s">
         <v>157</v>
       </c>
@@ -10996,7 +10965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19">
       <c r="A141" s="1" t="s">
         <v>158</v>
       </c>
@@ -11055,7 +11024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19">
       <c r="A142" s="1" t="s">
         <v>159</v>
       </c>
@@ -11114,7 +11083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19">
       <c r="A143" s="1" t="s">
         <v>160</v>
       </c>
@@ -11173,7 +11142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19">
       <c r="A144" s="1" t="s">
         <v>161</v>
       </c>
@@ -11232,7 +11201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19">
       <c r="A145" s="1" t="s">
         <v>162</v>
       </c>
@@ -11291,7 +11260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19">
       <c r="A146" s="1" t="s">
         <v>163</v>
       </c>
@@ -11350,7 +11319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19">
       <c r="A147" s="1" t="s">
         <v>164</v>
       </c>
@@ -11409,7 +11378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19">
       <c r="A148" s="1" t="s">
         <v>165</v>
       </c>
@@ -11468,7 +11437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19">
       <c r="A149" s="1" t="s">
         <v>166</v>
       </c>
@@ -11527,7 +11496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19">
       <c r="A150" s="1" t="s">
         <v>167</v>
       </c>
@@ -11586,7 +11555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19">
       <c r="A151" s="1" t="s">
         <v>168</v>
       </c>
@@ -11645,7 +11614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19">
       <c r="A152" s="1" t="s">
         <v>169</v>
       </c>
@@ -11704,7 +11673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19">
       <c r="A153" s="1" t="s">
         <v>170</v>
       </c>
@@ -11763,7 +11732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19">
       <c r="A154" s="1" t="s">
         <v>171</v>
       </c>
@@ -11822,7 +11791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19">
       <c r="A155" s="1" t="s">
         <v>172</v>
       </c>
@@ -11881,7 +11850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19">
       <c r="A156" s="1" t="s">
         <v>173</v>
       </c>
@@ -11940,7 +11909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19">
       <c r="A157" s="1" t="s">
         <v>174</v>
       </c>
@@ -11999,7 +11968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19">
       <c r="A158" s="1" t="s">
         <v>175</v>
       </c>
@@ -12058,7 +12027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19">
       <c r="A159" s="1" t="s">
         <v>176</v>
       </c>
@@ -12117,7 +12086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19">
       <c r="A160" s="1" t="s">
         <v>177</v>
       </c>
@@ -12176,7 +12145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19">
       <c r="A161" s="1" t="s">
         <v>178</v>
       </c>
@@ -12235,7 +12204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19">
       <c r="A162" s="1" t="s">
         <v>179</v>
       </c>
@@ -12294,7 +12263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19">
       <c r="A163" s="1" t="s">
         <v>180</v>
       </c>
@@ -12353,7 +12322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19">
       <c r="A164" s="1" t="s">
         <v>181</v>
       </c>
@@ -12412,7 +12381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19">
       <c r="A165" s="1" t="s">
         <v>182</v>
       </c>
@@ -12471,7 +12440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19">
       <c r="A166" s="1" t="s">
         <v>183</v>
       </c>
@@ -12530,7 +12499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19">
       <c r="A167" s="1" t="s">
         <v>184</v>
       </c>
@@ -12589,7 +12558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19">
       <c r="A168" s="1" t="s">
         <v>185</v>
       </c>
@@ -12648,7 +12617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19">
       <c r="A169" s="1" t="s">
         <v>186</v>
       </c>
@@ -12707,7 +12676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19">
       <c r="A170" s="1" t="s">
         <v>187</v>
       </c>
@@ -12766,7 +12735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19">
       <c r="A171" s="1" t="s">
         <v>188</v>
       </c>
@@ -12825,7 +12794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19">
       <c r="A172" s="1" t="s">
         <v>189</v>
       </c>
@@ -12884,7 +12853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19">
       <c r="A173" s="1" t="s">
         <v>190</v>
       </c>
@@ -12943,7 +12912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19">
       <c r="A174" s="1" t="s">
         <v>191</v>
       </c>
@@ -13002,7 +12971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19">
       <c r="A175" s="1" t="s">
         <v>192</v>
       </c>
@@ -13061,7 +13030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19">
       <c r="A176" s="1" t="s">
         <v>193</v>
       </c>
@@ -13120,7 +13089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19">
       <c r="A177" s="1" t="s">
         <v>194</v>
       </c>
@@ -13179,7 +13148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19">
       <c r="A178" s="1" t="s">
         <v>195</v>
       </c>
@@ -13238,7 +13207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19">
       <c r="A179" s="1" t="s">
         <v>196</v>
       </c>
@@ -13297,7 +13266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19">
       <c r="A180" s="1" t="s">
         <v>197</v>
       </c>
@@ -13356,7 +13325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19">
       <c r="A181" s="1" t="s">
         <v>198</v>
       </c>
@@ -13415,7 +13384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19">
       <c r="A182" s="1" t="s">
         <v>199</v>
       </c>
@@ -13474,7 +13443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19">
       <c r="A183" s="1" t="s">
         <v>200</v>
       </c>
